--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3896787.014465028</v>
+        <v>3894289.282541341</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.0755486</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130.3650345146638</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>3.671299835029207</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616885</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241012348</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011779</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T2" t="n">
         <v>212.7043385723318</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261752</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323632</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199361</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156102</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973762</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>17.56714738419652</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>126.5621014356329</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.0760097706325</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>317.1758324569947</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861688</v>
+        <v>12.92889148616885</v>
       </c>
       <c r="H5" t="n">
-        <v>315.163651471617</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>294.9177786878671</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261752</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323632</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199361</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156102</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973762</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371264</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S7" t="n">
-        <v>134.2643711341659</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>179.4864123522818</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>271.9725975058125</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>115.7624233403553</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.418938209067</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.289387533223</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.77415159213969</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6197054599889589</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>101.0545458193601</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>38.61213096654735</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>80.90831282609496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.62626738629423</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3007,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>23.10998325717172</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>94.91529601901398</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,13 +3503,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097486</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>139.0903271400893</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>195.1384308315443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.41782514684017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430.9887733001037</v>
+        <v>918.9787735270227</v>
       </c>
       <c r="C2" t="n">
-        <v>430.9887733001037</v>
+        <v>918.9787735270227</v>
       </c>
       <c r="D2" t="n">
-        <v>72.72307469335317</v>
+        <v>915.270389855276</v>
       </c>
       <c r="E2" t="n">
-        <v>72.72307469335317</v>
+        <v>915.270389855276</v>
       </c>
       <c r="F2" t="n">
-        <v>65.77757394414969</v>
+        <v>908.3248891060725</v>
       </c>
       <c r="G2" t="n">
-        <v>52.71808759448419</v>
+        <v>491.224998716003</v>
       </c>
       <c r="H2" t="n">
-        <v>52.71808759448419</v>
+        <v>172.8778760173998</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002561</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199868</v>
+        <v>474.9025859199855</v>
       </c>
       <c r="L2" t="n">
-        <v>974.381485964579</v>
+        <v>1025.843037648567</v>
       </c>
       <c r="M2" t="n">
-        <v>1604.015438845858</v>
+        <v>1210.458592371941</v>
       </c>
       <c r="N2" t="n">
-        <v>1796.232074633111</v>
+        <v>1629.431735936301</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937491</v>
+        <v>2174.593372690798</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.00999323969</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4367,13 +4367,13 @@
         <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>1326.27571658211</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="X2" t="n">
-        <v>952.8099583210303</v>
+        <v>1305.578613591144</v>
       </c>
       <c r="Y2" t="n">
-        <v>562.6706263452186</v>
+        <v>1305.578613591144</v>
       </c>
     </row>
     <row r="3">
@@ -4398,43 +4398,43 @@
         <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640334</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815724</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352086</v>
+        <v>170.7774263352082</v>
       </c>
       <c r="K3" t="n">
-        <v>237.3598989302736</v>
+        <v>499.1804835727255</v>
       </c>
       <c r="L3" t="n">
-        <v>605.0461972358008</v>
+        <v>667.2528399353326</v>
       </c>
       <c r="M3" t="n">
-        <v>782.9346491040209</v>
+        <v>1306.189304916052</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.320983085763</v>
+        <v>1958.575638897794</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291438</v>
+        <v>2506.500878103468</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018974</v>
+        <v>2613.977979877465</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
         <v>2267.787695880795</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>819.7621335238475</v>
+        <v>70.46268091185442</v>
       </c>
       <c r="C4" t="n">
-        <v>819.7621335238475</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D4" t="n">
-        <v>669.6454941115118</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E4" t="n">
-        <v>521.7324005291186</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F4" t="n">
-        <v>393.8918940284793</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>225.2796175108705</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>70.9766833223958</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>70.9766833223958</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.147531891974</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482342</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628178</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543796</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917133</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.77912932709</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421865</v>
+        <v>840.2167432160309</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421865</v>
+        <v>614.5643391547019</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421865</v>
+        <v>614.5643391547019</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421865</v>
+        <v>359.879850948815</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.751684421865</v>
+        <v>70.46268091185442</v>
       </c>
       <c r="X4" t="n">
-        <v>819.7621335238475</v>
+        <v>70.46268091185442</v>
       </c>
       <c r="Y4" t="n">
-        <v>819.7621335238475</v>
+        <v>70.46268091185442</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1519.530634217203</v>
+        <v>776.8584499902006</v>
       </c>
       <c r="C5" t="n">
-        <v>1199.151005472764</v>
+        <v>776.8584499902006</v>
       </c>
       <c r="D5" t="n">
-        <v>1199.151005472764</v>
+        <v>776.8584499902006</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.151005472764</v>
+        <v>391.0701973919563</v>
       </c>
       <c r="F5" t="n">
-        <v>788.1651006831569</v>
+        <v>384.1246966427528</v>
       </c>
       <c r="G5" t="n">
         <v>371.0652102930873</v>
       </c>
       <c r="H5" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903787</v>
+        <v>240.3507333903781</v>
       </c>
       <c r="K5" t="n">
-        <v>642.3082349403398</v>
+        <v>321.4042764948855</v>
       </c>
       <c r="L5" t="n">
-        <v>1193.248686668922</v>
+        <v>872.3447282234669</v>
       </c>
       <c r="M5" t="n">
-        <v>1377.864241392297</v>
+        <v>1056.960282946841</v>
       </c>
       <c r="N5" t="n">
-        <v>1948.012457026066</v>
+        <v>1419.239895182996</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780564</v>
+        <v>1964.401531937493</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992995</v>
+        <v>2392.009993239691</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.904379724209</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.904379724209</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.904379724209</v>
+        <v>2224.960126440575</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.904379724209</v>
+        <v>2224.960126440575</v>
       </c>
       <c r="W5" t="n">
-        <v>2283.135724454095</v>
+        <v>1927.063380291214</v>
       </c>
       <c r="X5" t="n">
-        <v>1909.669966193015</v>
+        <v>1553.597622030134</v>
       </c>
       <c r="Y5" t="n">
-        <v>1519.530634217203</v>
+        <v>1163.458290054322</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.431881212098</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.978851930971</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697198</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
         <v>483.8069872642643</v>
@@ -4638,37 +4638,37 @@
         <v>199.8245529640337</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815738</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448433</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352087</v>
+        <v>170.7774263352082</v>
       </c>
       <c r="K6" t="n">
-        <v>237.3598989302737</v>
+        <v>499.1804835727255</v>
       </c>
       <c r="L6" t="n">
-        <v>605.0461972358008</v>
+        <v>1002.163317769837</v>
       </c>
       <c r="M6" t="n">
-        <v>782.9346491040209</v>
+        <v>1238.315708304456</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085763</v>
+        <v>1435.320983085766</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291438</v>
+        <v>1983.246222291441</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018974</v>
+        <v>2406.001465018975</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S6" t="n">
         <v>2464.803105373095</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>371.7709099347268</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="C7" t="n">
-        <v>202.8347270068199</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D7" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E7" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.147531891974</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482342</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628178</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543796</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917133</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.77912932709</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R7" t="n">
-        <v>917.0295025661817</v>
+        <v>917.029502566179</v>
       </c>
       <c r="S7" t="n">
-        <v>781.4089256629838</v>
+        <v>709.4945613603475</v>
       </c>
       <c r="T7" t="n">
-        <v>781.4089256629838</v>
+        <v>709.4945613603475</v>
       </c>
       <c r="U7" t="n">
-        <v>781.4089256629838</v>
+        <v>709.4945613603475</v>
       </c>
       <c r="V7" t="n">
-        <v>781.4089256629838</v>
+        <v>454.8100731544606</v>
       </c>
       <c r="W7" t="n">
-        <v>781.4089256629838</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="X7" t="n">
-        <v>553.4193747649665</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="Y7" t="n">
-        <v>553.4193747649665</v>
+        <v>52.7180875944842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1909.669966193015</v>
+        <v>1051.039069230066</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.707449252604</v>
+        <v>682.0765522896547</v>
       </c>
       <c r="D8" t="n">
-        <v>1182.441750645853</v>
+        <v>682.0765522896547</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.441750645853</v>
+        <v>296.2882996914105</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7219551854364</v>
+        <v>289.342798942207</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="H8" t="n">
         <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786749</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4194506079129</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>616.7481064491661</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>803.4475192745738</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842937</v>
+        <v>2011.64543875972</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610014</v>
+        <v>2181.814464076679</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949308</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724209</v>
+        <v>2421.104517991921</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724209</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.904379724209</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="W8" t="n">
-        <v>2283.135724454095</v>
+        <v>1814.644159466958</v>
       </c>
       <c r="X8" t="n">
-        <v>1909.669966193015</v>
+        <v>1441.178401205878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1909.669966193015</v>
+        <v>1051.039069230066</v>
       </c>
     </row>
     <row r="9">
@@ -4875,22 +4875,22 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.6229446041677</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448419</v>
+        <v>155.1959933171734</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578412</v>
+        <v>484.6243976229833</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>988.9859374891018</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.232796591064</v>
+        <v>1168.483273843707</v>
       </c>
       <c r="N9" t="n">
         <v>1820.869607825449</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.7709099347268</v>
+        <v>179.403883765259</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8347270068199</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>696.5456110855965</v>
       </c>
       <c r="U10" t="n">
-        <v>763.5005926315087</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="V10" t="n">
-        <v>763.5005926315087</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="W10" t="n">
-        <v>474.083422594548</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="X10" t="n">
-        <v>371.7709099347268</v>
+        <v>179.403883765259</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.7709099347268</v>
+        <v>179.403883765259</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5060,16 +5060,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991042</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.33711846916</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.482284124065</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.880819147006</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.805592491204</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.121104285317</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488568</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>883.8931825606608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>733.776543148325</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360355</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318807</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,31 +5738,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>244.2098454714574</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>594.8179559048574</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>446.9048623224643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>300.0149148245539</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>132.8188155394338</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,19 +6306,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773688</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1600804794585</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>398.4954786600653</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2056.567265548083</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1767.492038892281</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>365.6798492130867</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.0469775526354</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>234.1771777362014</v>
+        <v>32.5469333494141</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792235</v>
+        <v>459.9808678792245</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>381.7490705520365</v>
+        <v>171.7807842918219</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>234.1771777362012</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>58.85246329939372</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792235</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>420.6772077539197</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>99.17134305363967</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>109.7462412654528</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>360.5859288704237</v>
+        <v>458.3127195243204</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.0578285897976</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.75554125013274</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>45.37941682720904</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.20571279564307</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>142.4141550350971</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>191.2691783702302</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.18682368252027</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>78.31512318719899</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>30.57122455749288</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690101.1538331796</v>
+        <v>690101.1538331799</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>690101.1538331796</v>
+        <v>690101.1538331799</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="H2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977555</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222444</v>
+        <v>789845.933122243</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448471433</v>
+        <v>2553.741448472796</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329923</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408953</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408953</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695015</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695072</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6287.480531695041</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6287.480531695104</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695062</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695061</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695053</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695072</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695085</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538448</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538448</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="D5" t="n">
         <v>86631.1255591778</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260332.6681708477</v>
+        <v>-260332.6681708466</v>
       </c>
       <c r="C6" t="n">
-        <v>529513.2649513965</v>
+        <v>529513.2649513964</v>
       </c>
       <c r="D6" t="n">
-        <v>527398.2731440243</v>
+        <v>527398.2731440231</v>
       </c>
       <c r="E6" t="n">
-        <v>-96066.34789083865</v>
+        <v>-96101.08581627424</v>
       </c>
       <c r="F6" t="n">
-        <v>679557.9243421541</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="G6" t="n">
-        <v>679557.9243421531</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="H6" t="n">
-        <v>679557.9243421539</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="I6" t="n">
-        <v>679557.9243421534</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="J6" t="n">
-        <v>507140.7829600134</v>
+        <v>507106.0450345778</v>
       </c>
       <c r="K6" t="n">
-        <v>679557.9243421538</v>
+        <v>679523.1864167184</v>
       </c>
       <c r="L6" t="n">
-        <v>679557.9243421535</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="M6" t="n">
-        <v>551533.8068757666</v>
+        <v>551499.068950331</v>
       </c>
       <c r="N6" t="n">
-        <v>679557.9243421534</v>
+        <v>679523.1864167183</v>
       </c>
       <c r="O6" t="n">
-        <v>679557.9243421536</v>
+        <v>679523.1864167184</v>
       </c>
       <c r="P6" t="n">
-        <v>679557.9243421536</v>
+        <v>679523.1864167177</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053437</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053437</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053437</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632721363</v>
+        <v>2.981900632722954</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252.3688071488168</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>351.0117417856537</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.163651471617</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386862</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>149.6796737144313</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>18.85894658729832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
         <v>123.428264884221</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371264</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937732</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>48.09705931401288</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386862</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241012348</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011779</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>54.32319002954591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>123.428264884221</v>
       </c>
       <c r="J7" t="n">
-        <v>18.0760097706325</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>71.19522065960732</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207157</v>
@@ -27831,16 +27831,16 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>107.0365859843092</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>134.903448235899</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>297.1544806055815</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.82788288956081</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>124.4202678558142</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,13 +30223,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966204</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415014</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171967</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009706</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K2" t="n">
-        <v>301.96211680711</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160846</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337123</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635126</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129798</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728766</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605244</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170484</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506743</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179956</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172963</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366211</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387893</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817876</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401209</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K3" t="n">
-        <v>205.096461797657</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623872</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394123</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351621</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492055</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789741</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190974</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064952</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822763</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445384</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830339</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026029</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849615</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303733</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604028</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546605</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177244</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609711</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203288</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953883</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324572</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.1646241555069</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400431</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319907</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565762</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232895</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966204</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415014</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171967</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009706</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K5" t="n">
-        <v>301.96211680711</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160846</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337123</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635126</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129798</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728766</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605244</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170484</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506743</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179956</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172963</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366211</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387893</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817876</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401209</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K6" t="n">
-        <v>205.096461797657</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623872</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394123</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351621</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492055</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789741</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190974</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064952</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822763</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445384</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830339</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026029</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849615</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303733</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604028</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546605</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177244</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609711</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203288</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953883</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324572</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.1646241555069</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400431</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319907</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565762</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232895</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>324.9782573297452</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>550.5977692975237</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>276.96469254416</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,22 +33026,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>487.5039436775326</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>251.886104915025</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>191.332301678856</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.5723171953896</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428427</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332942</v>
+        <v>406.0176783332934</v>
       </c>
       <c r="L2" t="n">
-        <v>504.524141459184</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992721</v>
+        <v>186.4803583064384</v>
       </c>
       <c r="N2" t="n">
-        <v>194.1582179669217</v>
+        <v>423.2051955195558</v>
       </c>
       <c r="O2" t="n">
-        <v>169.8681386912931</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890897</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459796</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.251857313863</v>
+        <v>119.2518573138627</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329799</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L3" t="n">
-        <v>371.4003013187144</v>
+        <v>169.7700569319264</v>
       </c>
       <c r="M3" t="n">
-        <v>179.685304917394</v>
+        <v>645.390368667393</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814905</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045811</v>
+        <v>108.5627290646432</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.225166368925</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287776</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780406</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228117</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995574</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O4" t="n">
-        <v>175.093387209428</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973507</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812515</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.527925046358</v>
+        <v>189.5279250463575</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332942</v>
+        <v>81.87226576212868</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965477</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M5" t="n">
-        <v>186.4803583064396</v>
+        <v>186.4803583064384</v>
       </c>
       <c r="N5" t="n">
-        <v>575.9072885189581</v>
+        <v>365.9390022587423</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540385</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176071</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607488</v>
+        <v>246.3579661459788</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.251857313863</v>
+        <v>119.2518573138627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329799</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L6" t="n">
-        <v>371.4003013187142</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M6" t="n">
-        <v>179.685304917394</v>
+        <v>238.5377682167868</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310523</v>
+        <v>198.9952270518279</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814905</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045811</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.225166368925</v>
+        <v>232.2251663689246</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287776</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780406</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228117</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995574</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O7" t="n">
-        <v>175.093387209428</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973507</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812515</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>616.9743924932958</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>211.0241968410402</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>103.5130360835245</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>561.2493042771557</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>27.13475084531535</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1368183553863</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>416.6233618831934</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>150.1270658774933</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36674,22 +36674,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>356.1622315941992</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>120.5443928316917</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>59.99058959552271</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>469.7150632237159</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509451</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
